--- a/doc/ハローワーク詳細設計.xlsx
+++ b/doc/ハローワーク詳細設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -2018,7 +2018,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>- Motive</a:t>
+              <a:t>- motive</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>

--- a/doc/ハローワーク詳細設計.xlsx
+++ b/doc/ハローワーク詳細設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -507,14 +507,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -523,8 +523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="3428999"/>
-          <a:ext cx="1371600" cy="857250"/>
+          <a:off x="1828800" y="2514600"/>
+          <a:ext cx="1219200" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -838,203 +838,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="グループ化 37"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4267200" y="2188845"/>
-          <a:ext cx="1219200" cy="1163955"/>
-          <a:chOff x="4800600" y="2057400"/>
-          <a:chExt cx="1371600" cy="857251"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4800600" y="2057400"/>
-            <a:ext cx="1371600" cy="857250"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Form</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>- name</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>- status</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>- salary</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4800600" y="2286000"/>
-            <a:ext cx="1371600" cy="628651"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -1108,7 +911,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ListController</a:t>
+              <a:t>JobListController</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1231,21 +1034,22 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120014</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
           <a:endCxn id="54" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm flipV="1">
           <a:off x="2438400" y="1183006"/>
-          <a:ext cx="3810" cy="2457448"/>
+          <a:ext cx="0" cy="1331594"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1280,13 +1084,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>83925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1297,8 +1101,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="771525"/>
-          <a:ext cx="1304925" cy="1524000"/>
+          <a:off x="3048000" y="754485"/>
+          <a:ext cx="1828800" cy="2933595"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1394,13 +1198,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>167431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1410,7 +1214,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4267200" y="4693711"/>
+          <a:off x="4267200" y="3687871"/>
           <a:ext cx="1219200" cy="838409"/>
           <a:chOff x="4800600" y="-128"/>
           <a:chExt cx="1371600" cy="857250"/>
@@ -1584,13 +1388,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1656,66 +1460,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>167536</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4876800" y="3352800"/>
-          <a:ext cx="0" cy="1341016"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1762,13 +1515,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1836,13 +1589,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1887,14 +1640,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1903,10 +1656,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6705600" y="4693920"/>
-          <a:ext cx="1219200" cy="1163955"/>
-          <a:chOff x="4800600" y="2057400"/>
-          <a:chExt cx="1371600" cy="857251"/>
+          <a:off x="6705600" y="3855720"/>
+          <a:ext cx="1219200" cy="1173481"/>
+          <a:chOff x="4800600" y="2427800"/>
+          <a:chExt cx="1371600" cy="864267"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1916,7 +1669,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4800600" y="2057400"/>
+            <a:off x="4800600" y="2427800"/>
             <a:ext cx="1371600" cy="857250"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2035,7 +1788,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4800600" y="2286000"/>
+            <a:off x="4800600" y="2663416"/>
             <a:ext cx="1371600" cy="628651"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2084,13 +1837,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2135,13 +1888,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>209</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2151,7 +1904,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6705600" y="6537960"/>
+          <a:off x="6705600" y="6035040"/>
           <a:ext cx="1219200" cy="838409"/>
           <a:chOff x="4800600" y="-128"/>
           <a:chExt cx="1371600" cy="857250"/>
@@ -2275,13 +2028,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2293,8 +2046,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7315200" y="5867504"/>
-          <a:ext cx="0" cy="670456"/>
+          <a:off x="7315200" y="5029200"/>
+          <a:ext cx="0" cy="1005840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2328,13 +2081,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2344,7 +2097,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="6537960"/>
+          <a:off x="4267200" y="6035040"/>
           <a:ext cx="1219200" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2402,13 +2155,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2418,7 +2171,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="6873240"/>
+          <a:off x="5486400" y="6370320"/>
           <a:ext cx="1219200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2634,13 +2387,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2650,8 +2403,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5486400" y="3352800"/>
-          <a:ext cx="1219200" cy="1844040"/>
+          <a:off x="5486400" y="3017520"/>
+          <a:ext cx="1219200" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2685,13 +2438,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2701,7 +2454,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6096000" y="2514600"/>
+          <a:off x="6096000" y="2179320"/>
           <a:ext cx="1219200" cy="838200"/>
           <a:chOff x="4800600" y="2057400"/>
           <a:chExt cx="1371600" cy="857251"/>
@@ -2825,13 +2578,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2841,7 +2594,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7315200" y="2514600"/>
+          <a:off x="7315200" y="2179320"/>
           <a:ext cx="1219200" cy="838200"/>
           <a:chOff x="4800600" y="2057400"/>
           <a:chExt cx="1371600" cy="857251"/>
@@ -2963,13 +2716,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2979,7 +2732,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8534400" y="2514600"/>
+          <a:off x="8534400" y="2179320"/>
           <a:ext cx="1219200" cy="838200"/>
           <a:chOff x="4800600" y="2057400"/>
           <a:chExt cx="1371600" cy="857251"/>
@@ -3103,13 +2856,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3119,8 +2872,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5486400" y="3352800"/>
-          <a:ext cx="2438400" cy="1844040"/>
+          <a:off x="5486400" y="3017520"/>
+          <a:ext cx="2438400" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3154,13 +2907,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3170,8 +2923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5486400" y="3352800"/>
-          <a:ext cx="3657600" cy="1844040"/>
+          <a:off x="5486400" y="3017520"/>
+          <a:ext cx="3657600" cy="1173480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
